--- a/Project-S/Assets/Excel/ExcelFile/DialogTable.xlsx
+++ b/Project-S/Assets/Excel/ExcelFile/DialogTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EBAA5E-D0B5-4C58-8331-D6EA1CCC4BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4223EF4-E975-4AA1-A9DE-6007097AEAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33855" yWindow="1635" windowWidth="21600" windowHeight="11835" xr2:uid="{C9389955-9033-4C5A-8992-00E4826D4C89}"/>
+    <workbookView xWindow="35925" yWindow="3105" windowWidth="19545" windowHeight="11835" xr2:uid="{C9389955-9033-4C5A-8992-00E4826D4C89}"/>
   </bookViews>
   <sheets>
     <sheet name="dialog" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
         <v>101</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>10101</v>
@@ -481,7 +481,7 @@
         <v>101</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>10102</v>
@@ -501,7 +501,7 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>10103</v>
@@ -521,7 +521,7 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>10104</v>
@@ -541,7 +541,7 @@
         <v>101</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>10105</v>
@@ -561,7 +561,7 @@
         <v>101</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>10106</v>
@@ -581,7 +581,7 @@
         <v>101</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>10107</v>
@@ -601,7 +601,7 @@
         <v>101</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>10108</v>
